--- a/invoice_gen/TEMPLATE/MT.xlsx
+++ b/invoice_gen/TEMPLATE/MT.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\inv_pkl_contract_creation\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EDE485-7339-44D2-9BAB-59C6D9146450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359B458-60D3-4D43-B271-A04E839AB947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
     <sheet name="Invoice" sheetId="2" r:id="rId2"/>
     <sheet name="Packing list" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Contract!$A$1:$G$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$31</definedName>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>SALES CONTRACT</t>
   </si>
@@ -300,16 +297,19 @@
     <t>BINH DUONG</t>
   </si>
   <si>
-    <t>MT2-25003E</t>
-  </si>
-  <si>
-    <t>CLF2025-186</t>
-  </si>
-  <si>
     <t>Contact Person : ZHENGYANYUN  Tel:  0274 3803833</t>
   </si>
   <si>
     <t>Contact Person: ZHENGYANYUN</t>
+  </si>
+  <si>
+    <t>JFTIME</t>
+  </si>
+  <si>
+    <t>JFNO</t>
+  </si>
+  <si>
+    <t>JFREF</t>
   </si>
 </sst>
 </file>
@@ -320,9 +320,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]dd/mmm/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="[$USD]\ #,##0.00;[$USD]\ \-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$USD]\ #,##0.00;[$USD]\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -588,30 +588,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -667,7 +643,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,7 +743,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -863,19 +839,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -894,6 +857,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -912,21 +887,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1232,32 +1207,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Contract"/>
-      <sheetName val="Invoice"/>
-      <sheetName val="Packing list"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="7">
-          <cell r="I7" t="str">
-            <v>CLF2025-186</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1518,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD85"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
@@ -1533,15 +1482,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14 16384:16384" s="41" customFormat="1" ht="46.15" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
       <c r="H1" s="54"/>
       <c r="I1" s="54"/>
       <c r="J1" s="54"/>
@@ -1566,8 +1515,8 @@
       <c r="F3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="73">
-        <v>45831</v>
+      <c r="G3" s="93" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14 16384:16384" s="43" customFormat="1" ht="39" customHeight="1">
@@ -1575,12 +1524,12 @@
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="74" t="s">
-        <v>59</v>
+      <c r="F4" s="77"/>
+      <c r="G4" s="94" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14 16384:16384" s="44" customFormat="1" ht="31.9" customHeight="1">
@@ -1624,18 +1573,18 @@
     </row>
     <row r="10" spans="1:14 16384:16384" s="44" customFormat="1" ht="33" customHeight="1">
       <c r="A10" s="58"/>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:14 16384:16384" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -1757,11 +1706,11 @@
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:13 16384:16384" s="48" customFormat="1" ht="44.1" customHeight="1">
       <c r="A21" s="67" t="s">
@@ -1770,11 +1719,11 @@
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:13 16384:16384" s="48" customFormat="1" ht="28.9" customHeight="1">
       <c r="A22" s="67" t="s">
@@ -1783,11 +1732,11 @@
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
     </row>
     <row r="23" spans="1:13 16384:16384" s="48" customFormat="1" ht="28.9" customHeight="1">
       <c r="A23" s="67" t="s">
@@ -1821,17 +1770,17 @@
       </c>
     </row>
     <row r="26" spans="1:13 16384:16384" s="43" customFormat="1" ht="57" customHeight="1">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="69"/>
-      <c r="E26" s="80" t="s">
+      <c r="E26" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
     </row>
     <row r="27" spans="1:13 16384:16384" s="49" customFormat="1" ht="39">
       <c r="A27" s="54"/>
@@ -2635,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -2656,70 +2605,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="69" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="A7" s="6"/>
@@ -2730,9 +2679,8 @@
       <c r="F7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="75" t="str">
-        <f>'[1]Packing list'!I7</f>
-        <v>CLF2025-186</v>
+      <c r="G7" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
@@ -2748,8 +2696,8 @@
       <c r="F8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="76" t="s">
-        <v>59</v>
+      <c r="G8" s="92" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1">
@@ -2763,8 +2711,8 @@
       <c r="F9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="77">
-        <v>45831</v>
+      <c r="G9" s="91" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1">
@@ -2822,12 +2770,12 @@
     </row>
     <row r="15" spans="1:7" ht="25.5" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="25.5" customHeight="1">
@@ -2853,7 +2801,7 @@
     <row r="18" spans="1:7" ht="26.1" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2886,11 +2834,11 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="42" customHeight="1">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="21"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2900,47 +2848,47 @@
       <c r="A23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="88"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:7" ht="42" customHeight="1">
       <c r="E27" s="31"/>
@@ -2992,11 +2940,6 @@
     <row r="62" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A6:G6"/>
@@ -3004,6 +2947,11 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:J34">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
@@ -3020,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -3047,98 +2995,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="54" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
     </row>
@@ -3154,8 +3102,8 @@
       <c r="I7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="75" t="s">
-        <v>60</v>
+      <c r="J7" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
@@ -3173,8 +3121,8 @@
       <c r="I8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="76" t="s">
-        <v>59</v>
+      <c r="J8" s="92" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
@@ -3190,8 +3138,8 @@
       <c r="I9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="77">
-        <v>45831</v>
+      <c r="J9" s="91" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="22.5" customHeight="1">
@@ -3257,13 +3205,13 @@
     </row>
     <row r="14" spans="1:12" ht="25.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="14"/>
       <c r="H14" s="4"/>
       <c r="J14" s="3"/>
@@ -3295,7 +3243,7 @@
     <row r="17" spans="1:13" ht="26.1" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1"/>
       <c r="E17" s="1"/>
@@ -3338,12 +3286,12 @@
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="6"/>
@@ -3359,10 +3307,10 @@
         <v>44</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="88"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -3374,12 +3322,12 @@
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" ht="48" customHeight="1">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -3391,36 +3339,36 @@
       <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:13" ht="27" customHeight="1">
       <c r="G26" s="6"/>
@@ -3444,8 +3392,8 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
     </row>
     <row r="30" spans="1:13" ht="53.1" customHeight="1">
       <c r="G30" s="6"/>
@@ -3476,19 +3424,19 @@
     <row r="61" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A25:L25"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <conditionalFormatting sqref="O21:O33">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>

--- a/invoice_gen/TEMPLATE/MT.xlsx
+++ b/invoice_gen/TEMPLATE/MT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\inv_pkl_contract_creation\invoice_gen\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\tools\inv_pkl_contract_creation - Copy\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359B458-60D3-4D43-B271-A04E839AB947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD36C10-222C-4450-A9D6-2685FAD107E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>MOTO INNOVATION VIETNAM LIMITED COMPANY</t>
   </si>
   <si>
-    <t>Factory C-1B-B1-B and C-1B-B2, Lot C-1B-CN, DE4 Street, My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ben Cat City, Binh Duong Province, Vietnam</t>
-  </si>
-  <si>
     <t>After discussion, the both parties agree to sell and purchase the commodities on the following terms and conditions:</t>
   </si>
   <si>
@@ -174,16 +171,7 @@
     <t>Factory C-1B-B1-B and C-1B-B2, Lot C-1B-CN, DE4 Street,</t>
   </si>
   <si>
-    <t xml:space="preserve"> My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ben Cat City, Binh Duong Province, Vietnam</t>
-  </si>
-  <si>
-    <t>TEL: 0274 3803833​​​TAX: 3703265936</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHIP: </t>
-  </si>
-  <si>
-    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO BINH DUONG PROVINCE, VIETNAM.</t>
   </si>
   <si>
     <t xml:space="preserve">Country of Original Cambodia </t>
@@ -294,22 +282,34 @@
     <t>Transaction method: DAP(USD)</t>
   </si>
   <si>
-    <t>BINH DUONG</t>
-  </si>
-  <si>
-    <t>Contact Person : ZHENGYANYUN  Tel:  0274 3803833</t>
-  </si>
-  <si>
-    <t>Contact Person: ZHENGYANYUN</t>
-  </si>
-  <si>
     <t>JFTIME</t>
   </si>
   <si>
-    <t>JFNO</t>
-  </si>
-  <si>
     <t>JFREF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ho Chi Minh City, Vietnam</t>
+  </si>
+  <si>
+    <t>Factory C-1B-B1-B and C-1B-B2, Lot C-1B-CN, DE4 Street, My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ho Chi Minh City, Vietnam</t>
+  </si>
+  <si>
+    <t>Contact Person : XU MEIJUN  Tel:  0274 3803833</t>
+  </si>
+  <si>
+    <t>Contact Person: XU MEIJUN</t>
+  </si>
+  <si>
+    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO HO CHI MINH CITY, VIETNAM.</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>TEL: 0274 3803833​​​ TAX: 3703265936</t>
+  </si>
+  <si>
+    <t>JFINV</t>
   </si>
 </sst>
 </file>
@@ -322,7 +322,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$USD]\ #,##0.00;[$USD]\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -587,6 +587,35 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Book Antiqua"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -643,7 +672,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +868,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -854,7 +910,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -875,7 +931,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -891,18 +947,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1467,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD85"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
@@ -1482,15 +1526,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14 16384:16384" s="41" customFormat="1" ht="46.15" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
       <c r="H1" s="54"/>
       <c r="I1" s="54"/>
       <c r="J1" s="54"/>
@@ -1515,8 +1559,8 @@
       <c r="F3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="93" t="s">
-        <v>61</v>
+      <c r="G3" s="75" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:14 16384:16384" s="43" customFormat="1" ht="39" customHeight="1">
@@ -1524,12 +1568,12 @@
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="94" t="s">
-        <v>62</v>
+      <c r="F4" s="88"/>
+      <c r="G4" s="76" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:14 16384:16384" s="44" customFormat="1" ht="31.9" customHeight="1">
@@ -1573,28 +1617,28 @@
     </row>
     <row r="10" spans="1:14 16384:16384" s="44" customFormat="1" ht="33" customHeight="1">
       <c r="A10" s="58"/>
-      <c r="B10" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
+      <c r="B10" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:14 16384:16384" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="B11" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
     </row>
     <row r="12" spans="1:14 16384:16384" s="46" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="60"/>
       <c r="E12" s="61"/>
@@ -1608,7 +1652,7 @@
     </row>
     <row r="13" spans="1:14 16384:16384" s="46" customFormat="1" ht="26.1" customHeight="1">
       <c r="A13" s="62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="62"/>
       <c r="E13" s="61"/>
@@ -1624,7 +1668,7 @@
     </row>
     <row r="14" spans="1:14 16384:16384" s="46" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="60"/>
       <c r="E14" s="61"/>
@@ -1654,10 +1698,10 @@
     </row>
     <row r="16" spans="1:14 16384:16384" s="48" customFormat="1" ht="28.9" customHeight="1">
       <c r="A16" s="65" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="67"/>
@@ -1666,7 +1710,7 @@
     </row>
     <row r="17" spans="1:13 16384:16384" s="48" customFormat="1" ht="28.9" customHeight="1">
       <c r="A17" s="67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -1677,7 +1721,7 @@
     </row>
     <row r="18" spans="1:13 16384:16384" s="48" customFormat="1" ht="28.9" customHeight="1">
       <c r="A18" s="67" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -1688,7 +1732,7 @@
     </row>
     <row r="19" spans="1:13 16384:16384" s="48" customFormat="1" ht="28.9" customHeight="1">
       <c r="A19" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -1701,52 +1745,52 @@
     </row>
     <row r="20" spans="1:13 16384:16384" s="48" customFormat="1" ht="62.1" customHeight="1">
       <c r="A20" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="E20" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
     </row>
     <row r="21" spans="1:13 16384:16384" s="48" customFormat="1" ht="44.1" customHeight="1">
       <c r="A21" s="67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
-      <c r="E21" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
+      <c r="E21" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
     </row>
     <row r="22" spans="1:13 16384:16384" s="48" customFormat="1" ht="28.9" customHeight="1">
       <c r="A22" s="67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
-      <c r="E22" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+      <c r="E22" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="1:13 16384:16384" s="48" customFormat="1" ht="28.9" customHeight="1">
       <c r="A23" s="67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
       <c r="E23" s="67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="67"/>
       <c r="G23" s="67"/>
@@ -1763,24 +1807,24 @@
     </row>
     <row r="25" spans="1:13 16384:16384" s="43" customFormat="1" ht="28.9" customHeight="1">
       <c r="B25" s="68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13 16384:16384" s="43" customFormat="1" ht="57" customHeight="1">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="69"/>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
     </row>
     <row r="27" spans="1:13 16384:16384" s="49" customFormat="1" ht="39">
       <c r="A27" s="54"/>
@@ -2584,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -2605,70 +2649,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
+      <c r="A2" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A3" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A4" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A5" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+    </row>
+    <row r="6" spans="1:7" ht="69" customHeight="1">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="69" customHeight="1">
-      <c r="A6" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="A7" s="6"/>
@@ -2677,63 +2721,63 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="9"/>
       <c r="F8" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="92" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="A9" s="31"/>
       <c r="B9" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="31"/>
       <c r="F9" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="91" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="31"/>
       <c r="F10" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1">
       <c r="A11" s="31"/>
       <c r="B11" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
@@ -2758,7 +2802,7 @@
     </row>
     <row r="14" spans="1:7" ht="25.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>10</v>
@@ -2770,50 +2814,50 @@
     </row>
     <row r="15" spans="1:7" ht="25.5" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
+      <c r="B15" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="25.5" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="26.1" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="27.75" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2834,11 +2878,11 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="42" customHeight="1">
-      <c r="A22" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
+      <c r="A22" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="21"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2846,61 +2890,61 @@
     </row>
     <row r="23" spans="1:7" ht="61.5" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="87"/>
+        <v>40</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="98"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A24" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
+      <c r="A24" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A25" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
+      <c r="A25" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
+      <c r="A26" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
     </row>
     <row r="27" spans="1:7" ht="42" customHeight="1">
       <c r="E27" s="31"/>
       <c r="F27" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="24" customHeight="1">
       <c r="E28" s="6"/>
       <c r="F28" s="34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="69.75" customHeight="1">
@@ -2914,7 +2958,7 @@
     <row r="31" spans="1:7" ht="53.1" customHeight="1">
       <c r="E31" s="6"/>
       <c r="F31" s="40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G31" s="35"/>
     </row>
@@ -2968,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -2995,98 +3039,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="A1" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="A2" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A4" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A5" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="54" customHeight="1">
-      <c r="A6" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
+      <c r="A6" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
     </row>
@@ -3100,18 +3144,18 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3119,16 +3163,16 @@
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="92" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3136,16 +3180,16 @@
       <c r="G9" s="10"/>
       <c r="H9" s="6"/>
       <c r="I9" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="91" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="22.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3153,17 +3197,17 @@
       <c r="G10" s="10"/>
       <c r="H10" s="6"/>
       <c r="I10" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3191,7 +3235,7 @@
     </row>
     <row r="13" spans="1:12" ht="25.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>10</v>
@@ -3205,59 +3249,62 @@
     </row>
     <row r="14" spans="1:12" ht="25.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
+      <c r="B14" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="14"/>
       <c r="H14" s="4"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="25.5" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="12"/>
       <c r="H15" s="4"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="17"/>
       <c r="H16" s="4"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="26.1" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3276,7 +3323,7 @@
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -3286,12 +3333,12 @@
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A21" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
+      <c r="A21" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="6"/>
@@ -3304,13 +3351,13 @@
     </row>
     <row r="22" spans="1:13" ht="72" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="87"/>
+      <c r="C22" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="98"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -3322,12 +3369,12 @@
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" ht="48" customHeight="1">
-      <c r="A23" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
+      <c r="A23" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -3339,42 +3386,42 @@
       <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
-      <c r="A24" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
+      <c r="A24" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A25" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
+      <c r="A25" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
     </row>
     <row r="26" spans="1:13" ht="27" customHeight="1">
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J26" s="5"/>
     </row>
@@ -3392,8 +3439,8 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
     </row>
     <row r="30" spans="1:13" ht="53.1" customHeight="1">
       <c r="G30" s="6"/>
